--- a/src/assets/sampleData.xlsx
+++ b/src/assets/sampleData.xlsx
@@ -55,13 +55,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
       <t>Note 2</t>
     </r>
     <r>
@@ -71,7 +64,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>: To Enter Date Enter in DD/MM/YYYY format (22/08/2022) Do no Cut or copy and Paste</t>
+      <t>: To Enter Date Enter in DD-MM-YYYY format (01-01-2025) Do no Cut or copy and Paste</t>
     </r>
   </si>
   <si>
@@ -206,13 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
@@ -230,6 +216,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -378,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,99 +915,99 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1026,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1577,7 +1567,7 @@
   <dimension ref="D3:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1644,7 +1634,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="9.9" customHeight="1" spans="4:5">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="13"/>
@@ -1662,7 +1652,7 @@
       <c r="E17" s="17"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="9.9" customHeight="1" spans="4:5">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="13"/>
@@ -1676,7 +1666,7 @@
       <c r="E20" s="17"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="9.9" customHeight="1" spans="4:5">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="13"/>
